--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>GESAMT</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Zeiterfassung Software Engineering Praktikum (259035)</t>
+  </si>
+  <si>
+    <t>Abklärung und Besprechung des Release 1</t>
+  </si>
+  <si>
+    <t>Projekttagebuch und Istzeiterfassung aktualisiert</t>
   </si>
 </sst>
 </file>
@@ -306,8 +312,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B6:H44"/>
   <sortState ref="B7:H44">
-    <sortCondition ref="D7:D44"/>
-    <sortCondition ref="E7:E44"/>
+    <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" name="Art" dataDxfId="6"/>
@@ -592,7 +597,7 @@
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,24 +707,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13">
-        <v>43202</v>
+        <v>43196</v>
       </c>
       <c r="E9" s="12">
-        <v>0.375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F9" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G9" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -727,20 +732,20 @@
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="13">
         <v>43202</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F10" s="16">
-        <v>0.5</v>
-      </c>
       <c r="G10" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
@@ -749,23 +754,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="13">
-        <v>43205</v>
+        <v>43202</v>
       </c>
       <c r="E11" s="16">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F11" s="16">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
@@ -774,27 +779,27 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="13">
-        <v>43208</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.41666666666666669</v>
+        <v>43205</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -802,20 +807,20 @@
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="13">
         <v>43208</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F13" s="16">
-        <v>0.52083333333333337</v>
-      </c>
       <c r="G13" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
@@ -827,54 +832,74 @@
         <v>2</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="13">
         <v>43208</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="16">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>43208</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F15" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43208</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.84375</v>
+      </c>
       <c r="G16" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
@@ -1292,7 +1317,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>15.25</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>GESAMT</t>
   </si>
@@ -597,7 +597,7 @@
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,18 +903,28 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13">
+        <v>43216</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.625</v>
+      </c>
       <c r="G17" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
@@ -1317,7 +1327,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57232DBC-50EB-48B4-84F2-72CEE206D0BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,10 +90,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -192,12 +193,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -211,7 +212,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -309,21 +310,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" name="von" dataDxfId="3"/>
-    <tableColumn id="5" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -593,42 +594,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1"/>
-    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -651,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -676,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -701,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -727,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -752,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -777,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -802,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -827,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -852,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -877,7 +878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -902,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -927,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -942,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13"/>
@@ -957,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13"/>
@@ -972,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13"/>
@@ -987,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
@@ -1002,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1017,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1032,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -1047,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -1062,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -1077,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1092,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1107,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1122,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1137,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1152,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1167,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1182,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1197,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1212,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1227,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1242,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1257,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1272,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1287,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1302,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -1317,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
@@ -1330,13 +1331,13 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
@@ -1345,7 +1346,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1354,7 +1355,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1363,7 +1364,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1372,7 +1373,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1381,7 +1382,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1390,7 +1391,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1399,7 +1400,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1408,7 +1409,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1417,7 +1418,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1426,7 +1427,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
@@ -1435,7 +1436,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1444,7 +1445,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1453,7 +1454,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1462,7 +1463,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1471,7 +1472,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1480,7 +1481,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1489,7 +1490,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1498,7 +1499,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1507,7 +1508,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1516,7 +1517,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1525,7 +1526,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1534,7 +1535,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1543,7 +1544,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1552,7 +1553,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1561,7 +1562,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1570,7 +1571,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1579,7 +1580,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1588,7 +1589,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1597,7 +1598,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1606,7 +1607,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1615,7 +1616,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1624,7 +1625,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1633,7 +1634,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1642,7 +1643,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1651,7 +1652,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1660,7 +1661,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1669,7 +1670,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1678,7 +1679,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1687,7 +1688,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1696,7 +1697,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1705,7 +1706,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1714,7 +1715,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3"/>
@@ -1723,7 +1724,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1732,7 +1733,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1741,7 +1742,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
@@ -1750,7 +1751,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1759,7 +1760,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1768,7 +1769,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1777,7 +1778,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1786,7 +1787,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1795,7 +1796,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1804,7 +1805,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1813,7 +1814,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1822,7 +1823,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1831,7 +1832,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1840,7 +1841,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1849,7 +1850,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1858,7 +1859,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1867,7 +1868,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1876,7 +1877,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1885,7 +1886,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1894,7 +1895,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1903,7 +1904,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1912,7 +1913,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1921,7 +1922,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1930,7 +1931,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1939,7 +1940,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -1948,7 +1949,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -1957,7 +1958,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -1966,7 +1967,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -1975,7 +1976,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -1984,7 +1985,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -1993,7 +1994,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2002,7 +2003,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2011,7 +2012,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2020,7 +2021,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2029,7 +2030,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2038,7 +2039,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2047,7 +2048,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2056,7 +2057,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2065,7 +2066,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2074,7 +2075,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2083,7 +2084,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2092,7 +2093,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2101,7 +2102,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2110,7 +2111,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2119,7 +2120,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3"/>
@@ -2128,7 +2129,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2137,7 +2138,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2146,7 +2147,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -2155,7 +2156,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2164,7 +2165,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2173,7 +2174,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2182,7 +2183,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2191,7 +2192,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2200,7 +2201,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2209,7 +2210,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2218,7 +2219,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2227,7 +2228,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2236,7 +2237,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2245,7 +2246,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2254,7 +2255,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2263,7 +2264,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2272,7 +2273,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2281,7 +2282,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2290,7 +2291,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2299,7 +2300,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2308,7 +2309,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2317,7 +2318,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2326,7 +2327,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2335,7 +2336,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2344,7 +2345,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2353,7 +2354,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2362,7 +2363,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2371,7 +2372,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2380,7 +2381,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2389,7 +2390,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2398,7 +2399,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2407,7 +2408,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2416,7 +2417,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2425,7 +2426,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2434,7 +2435,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2443,7 +2444,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2452,7 +2453,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2461,7 +2462,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2470,7 +2471,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2479,7 +2480,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2488,7 +2489,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2497,7 +2498,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2506,7 +2507,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2515,7 +2516,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2524,7 +2525,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="3"/>
@@ -2533,7 +2534,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2542,7 +2543,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2551,7 +2552,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
@@ -2560,7 +2561,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2569,7 +2570,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2578,7 +2579,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2587,7 +2588,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2596,7 +2597,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2605,7 +2606,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2614,7 +2615,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2623,7 +2624,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2632,7 +2633,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2641,7 +2642,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2650,7 +2651,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2659,7 +2660,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2668,7 +2669,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2677,7 +2678,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2686,7 +2687,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2695,7 +2696,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2704,7 +2705,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2713,7 +2714,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2722,7 +2723,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2731,7 +2732,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2740,7 +2741,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2749,7 +2750,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2758,7 +2759,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2767,7 +2768,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2776,7 +2777,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2785,7 +2786,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2794,7 +2795,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2803,7 +2804,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2812,7 +2813,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2821,7 +2822,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2830,7 +2831,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2839,7 +2840,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -2848,7 +2849,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -2857,7 +2858,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -2866,7 +2867,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -2875,7 +2876,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -2884,7 +2885,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2893,7 +2894,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2902,7 +2903,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2911,7 +2912,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2920,25 +2921,25 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57232DBC-50EB-48B4-84F2-72CEE206D0BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>GESAMT</t>
   </si>
@@ -86,14 +85,17 @@
   <si>
     <t>Projekttagebuch und Istzeiterfassung aktualisiert</t>
   </si>
+  <si>
+    <t>Besprechung LVA Leiter Release I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -193,12 +195,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -212,7 +214,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -310,21 +312,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" name="von" dataDxfId="3"/>
+    <tableColumn id="5" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -594,42 +596,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1"/>
+    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -652,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -677,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -702,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -728,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -753,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -778,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -803,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -828,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -853,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -878,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -903,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -928,22 +930,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43209</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G18" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13"/>
@@ -958,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13"/>
@@ -973,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13"/>
@@ -988,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
@@ -1003,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1018,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1033,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -1048,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -1063,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -1078,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1093,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1108,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1123,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1138,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1153,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1168,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1183,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1198,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1213,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1243,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1258,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1273,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1288,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1303,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -1318,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
@@ -1328,16 +1340,16 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
@@ -1346,7 +1358,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1355,7 +1367,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1364,7 +1376,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1373,7 +1385,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1382,7 +1394,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1391,7 +1403,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1400,7 +1412,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1409,7 +1421,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1418,7 +1430,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1427,7 +1439,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
@@ -1436,7 +1448,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1445,7 +1457,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1454,7 +1466,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1463,7 +1475,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1472,7 +1484,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1481,7 +1493,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1490,7 +1502,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1499,7 +1511,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1508,7 +1520,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1517,7 +1529,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1526,7 +1538,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1535,7 +1547,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1544,7 +1556,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1553,7 +1565,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1562,7 +1574,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1571,7 +1583,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1580,7 +1592,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1589,7 +1601,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1598,7 +1610,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1607,7 +1619,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1616,7 +1628,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1625,7 +1637,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1634,7 +1646,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1643,7 +1655,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1652,7 +1664,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1661,7 +1673,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1670,7 +1682,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1679,7 +1691,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1688,7 +1700,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1697,7 +1709,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1706,7 +1718,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1715,7 +1727,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3"/>
@@ -1724,7 +1736,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1733,7 +1745,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1742,7 +1754,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
@@ -1751,7 +1763,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1760,7 +1772,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1769,7 +1781,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1778,7 +1790,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1787,7 +1799,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1796,7 +1808,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1805,7 +1817,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1814,7 +1826,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1823,7 +1835,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1832,7 +1844,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1841,7 +1853,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1850,7 +1862,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1859,7 +1871,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1868,7 +1880,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1877,7 +1889,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1886,7 +1898,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1895,7 +1907,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1904,7 +1916,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1913,7 +1925,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1922,7 +1934,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1931,7 +1943,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1940,7 +1952,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -1949,7 +1961,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -1958,7 +1970,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -1967,7 +1979,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -1976,7 +1988,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -1985,7 +1997,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -1994,7 +2006,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2003,7 +2015,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2012,7 +2024,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2021,7 +2033,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2030,7 +2042,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2039,7 +2051,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2048,7 +2060,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2057,7 +2069,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2066,7 +2078,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2075,7 +2087,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2084,7 +2096,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2093,7 +2105,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2102,7 +2114,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2111,7 +2123,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2120,7 +2132,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3"/>
@@ -2129,7 +2141,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2138,7 +2150,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2147,7 +2159,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -2156,7 +2168,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2165,7 +2177,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2174,7 +2186,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2183,7 +2195,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2192,7 +2204,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2201,7 +2213,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2210,7 +2222,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2219,7 +2231,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2228,7 +2240,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2237,7 +2249,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2246,7 +2258,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2255,7 +2267,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2264,7 +2276,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2273,7 +2285,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2282,7 +2294,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2291,7 +2303,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2300,7 +2312,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2309,7 +2321,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2318,7 +2330,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2327,7 +2339,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2336,7 +2348,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2345,7 +2357,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2354,7 +2366,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2363,7 +2375,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2372,7 +2384,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2381,7 +2393,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2390,7 +2402,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2399,7 +2411,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2408,7 +2420,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2417,7 +2429,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2426,7 +2438,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2435,7 +2447,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2444,7 +2456,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2453,7 +2465,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2462,7 +2474,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2471,7 +2483,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2480,7 +2492,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2489,7 +2501,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2498,7 +2510,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2507,7 +2519,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2516,7 +2528,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2525,7 +2537,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="3"/>
@@ -2534,7 +2546,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2543,7 +2555,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2552,7 +2564,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
@@ -2561,7 +2573,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2570,7 +2582,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2579,7 +2591,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2588,7 +2600,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2597,7 +2609,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2606,7 +2618,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2615,7 +2627,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2624,7 +2636,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2633,7 +2645,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2642,7 +2654,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2651,7 +2663,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2660,7 +2672,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2669,7 +2681,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2678,7 +2690,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2687,7 +2699,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2696,7 +2708,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2705,7 +2717,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2714,7 +2726,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2723,7 +2735,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2732,7 +2744,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2741,7 +2753,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2750,7 +2762,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2759,7 +2771,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2768,7 +2780,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2777,7 +2789,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2786,7 +2798,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2795,7 +2807,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2804,7 +2816,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2813,7 +2825,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2822,7 +2834,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2831,7 +2843,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2840,7 +2852,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -2849,7 +2861,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -2858,7 +2870,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -2867,7 +2879,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -2876,7 +2888,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -2885,7 +2897,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2894,7 +2906,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2903,7 +2915,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2912,7 +2924,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2921,25 +2933,25 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAAA506-C07E-4164-9B5A-94390AEB9A4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>GESAMT</t>
   </si>
@@ -88,14 +89,17 @@
   <si>
     <t>Besprechung LVA Leiter Release I</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -195,12 +199,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -214,7 +218,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -312,21 +316,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" name="von" dataDxfId="3"/>
-    <tableColumn id="5" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -596,42 +600,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1"/>
-    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -654,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -679,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -704,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -730,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -755,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -780,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -805,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -830,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -855,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -880,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -905,7 +909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -930,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -955,22 +959,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13">
+        <v>43223</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G19" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13"/>
@@ -985,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13"/>
@@ -1000,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
@@ -1015,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1030,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1045,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -1060,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -1075,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -1090,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1105,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1120,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1135,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1150,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1165,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1180,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1195,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1210,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1225,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1240,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1255,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1270,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1285,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1300,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1315,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -1330,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
@@ -1340,16 +1354,16 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
@@ -1358,7 +1372,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1367,7 +1381,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1376,7 +1390,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1385,7 +1399,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1394,7 +1408,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1403,7 +1417,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1412,7 +1426,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1421,7 +1435,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1430,7 +1444,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1439,7 +1453,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
@@ -1448,7 +1462,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1457,7 +1471,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1466,7 +1480,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1475,7 +1489,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1484,7 +1498,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1493,7 +1507,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1502,7 +1516,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1511,7 +1525,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1520,7 +1534,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1529,7 +1543,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1538,7 +1552,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1547,7 +1561,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1556,7 +1570,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1565,7 +1579,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1574,7 +1588,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1583,7 +1597,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1592,7 +1606,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1601,7 +1615,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1610,7 +1624,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1619,7 +1633,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1628,7 +1642,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1637,7 +1651,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1646,7 +1660,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1655,7 +1669,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1664,7 +1678,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1673,7 +1687,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1682,7 +1696,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1691,7 +1705,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1700,7 +1714,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1709,7 +1723,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1718,7 +1732,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1727,7 +1741,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3"/>
@@ -1736,7 +1750,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1745,7 +1759,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1754,7 +1768,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
@@ -1763,7 +1777,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1772,7 +1786,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1781,7 +1795,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1790,7 +1804,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1799,7 +1813,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1808,7 +1822,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1817,7 +1831,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1826,7 +1840,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1835,7 +1849,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1844,7 +1858,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1853,7 +1867,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1862,7 +1876,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1871,7 +1885,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1880,7 +1894,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1889,7 +1903,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1898,7 +1912,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1907,7 +1921,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1916,7 +1930,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1925,7 +1939,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1934,7 +1948,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1943,7 +1957,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1952,7 +1966,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -1961,7 +1975,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -1970,7 +1984,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -1979,7 +1993,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -1988,7 +2002,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -1997,7 +2011,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2006,7 +2020,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2015,7 +2029,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2024,7 +2038,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2033,7 +2047,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2042,7 +2056,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2051,7 +2065,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2060,7 +2074,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2069,7 +2083,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2078,7 +2092,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2087,7 +2101,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2096,7 +2110,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2105,7 +2119,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2114,7 +2128,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2123,7 +2137,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2132,7 +2146,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3"/>
@@ -2141,7 +2155,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2150,7 +2164,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2159,7 +2173,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -2168,7 +2182,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2177,7 +2191,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2186,7 +2200,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2195,7 +2209,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2204,7 +2218,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2213,7 +2227,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2222,7 +2236,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2231,7 +2245,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2240,7 +2254,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2249,7 +2263,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2258,7 +2272,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2267,7 +2281,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2276,7 +2290,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2285,7 +2299,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2294,7 +2308,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2303,7 +2317,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2312,7 +2326,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2321,7 +2335,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2330,7 +2344,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2339,7 +2353,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2348,7 +2362,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2357,7 +2371,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2366,7 +2380,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2375,7 +2389,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2384,7 +2398,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2393,7 +2407,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2402,7 +2416,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2411,7 +2425,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2420,7 +2434,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2429,7 +2443,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2438,7 +2452,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2447,7 +2461,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2456,7 +2470,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2465,7 +2479,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2474,7 +2488,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2483,7 +2497,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2492,7 +2506,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2501,7 +2515,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2510,7 +2524,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2519,7 +2533,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2528,7 +2542,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2537,7 +2551,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="3"/>
@@ -2546,7 +2560,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2555,7 +2569,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2564,7 +2578,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
@@ -2573,7 +2587,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2582,7 +2596,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2591,7 +2605,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2600,7 +2614,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2609,7 +2623,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2618,7 +2632,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2627,7 +2641,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2636,7 +2650,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2645,7 +2659,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2654,7 +2668,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2663,7 +2677,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2672,7 +2686,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2681,7 +2695,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2690,7 +2704,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2699,7 +2713,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2708,7 +2722,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2717,7 +2731,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2726,7 +2740,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2735,7 +2749,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2744,7 +2758,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2753,7 +2767,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2762,7 +2776,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2771,7 +2785,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2780,7 +2794,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2789,7 +2803,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2798,7 +2812,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2807,7 +2821,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2816,7 +2830,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2825,7 +2839,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2834,7 +2848,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2843,7 +2857,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2852,7 +2866,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -2861,7 +2875,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -2870,7 +2884,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -2879,7 +2893,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -2888,7 +2902,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -2897,7 +2911,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2906,7 +2920,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2915,7 +2929,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2924,7 +2938,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2933,25 +2947,25 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAAA506-C07E-4164-9B5A-94390AEB9A4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>GESAMT</t>
   </si>
@@ -92,14 +91,17 @@
   <si>
     <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
   </si>
+  <si>
+    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -199,12 +201,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -218,7 +220,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -316,21 +318,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" name="von" dataDxfId="3"/>
+    <tableColumn id="5" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -600,42 +602,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1"/>
+    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -658,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -683,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -708,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -734,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -759,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -784,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -809,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -834,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -859,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -884,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -909,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -934,7 +936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -959,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -984,22 +986,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13">
+        <v>43223</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G20" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H20" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13"/>
@@ -1014,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
@@ -1029,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1044,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1059,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -1074,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -1089,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -1104,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1119,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1134,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1149,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1164,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1179,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1194,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1209,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1224,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1254,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1284,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1299,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1314,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1329,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -1344,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
@@ -1354,16 +1366,16 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
@@ -1372,7 +1384,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1381,7 +1393,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1390,7 +1402,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1399,7 +1411,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1408,7 +1420,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1417,7 +1429,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1426,7 +1438,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1435,7 +1447,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1444,7 +1456,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1453,7 +1465,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
@@ -1462,7 +1474,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1471,7 +1483,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1480,7 +1492,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1489,7 +1501,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1498,7 +1510,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1507,7 +1519,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1516,7 +1528,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1525,7 +1537,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1534,7 +1546,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1543,7 +1555,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1552,7 +1564,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1561,7 +1573,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1570,7 +1582,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1579,7 +1591,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1588,7 +1600,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1597,7 +1609,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1606,7 +1618,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1615,7 +1627,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1624,7 +1636,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1633,7 +1645,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1642,7 +1654,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1651,7 +1663,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1660,7 +1672,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1669,7 +1681,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1678,7 +1690,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1687,7 +1699,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1696,7 +1708,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1705,7 +1717,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1714,7 +1726,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1723,7 +1735,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1732,7 +1744,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1741,7 +1753,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3"/>
@@ -1750,7 +1762,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1759,7 +1771,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1768,7 +1780,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
@@ -1777,7 +1789,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1786,7 +1798,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1795,7 +1807,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1804,7 +1816,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1813,7 +1825,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1822,7 +1834,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1831,7 +1843,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1840,7 +1852,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1849,7 +1861,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1858,7 +1870,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1867,7 +1879,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1876,7 +1888,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1885,7 +1897,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1894,7 +1906,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1903,7 +1915,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1912,7 +1924,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1921,7 +1933,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1930,7 +1942,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1939,7 +1951,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1948,7 +1960,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1957,7 +1969,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1966,7 +1978,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -1975,7 +1987,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -1984,7 +1996,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -1993,7 +2005,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2002,7 +2014,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2011,7 +2023,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2020,7 +2032,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2029,7 +2041,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2038,7 +2050,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2047,7 +2059,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2056,7 +2068,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2065,7 +2077,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2074,7 +2086,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2083,7 +2095,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2092,7 +2104,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2101,7 +2113,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2110,7 +2122,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2119,7 +2131,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2128,7 +2140,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2137,7 +2149,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2146,7 +2158,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3"/>
@@ -2155,7 +2167,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2164,7 +2176,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2173,7 +2185,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -2182,7 +2194,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2191,7 +2203,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2200,7 +2212,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2209,7 +2221,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2218,7 +2230,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2227,7 +2239,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2236,7 +2248,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2245,7 +2257,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2254,7 +2266,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2263,7 +2275,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2272,7 +2284,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2281,7 +2293,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2290,7 +2302,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2299,7 +2311,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2308,7 +2320,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2317,7 +2329,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2326,7 +2338,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2335,7 +2347,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2344,7 +2356,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2353,7 +2365,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2362,7 +2374,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2371,7 +2383,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2380,7 +2392,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2389,7 +2401,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2398,7 +2410,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2407,7 +2419,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2416,7 +2428,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2425,7 +2437,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2434,7 +2446,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2443,7 +2455,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2452,7 +2464,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2461,7 +2473,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2470,7 +2482,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2479,7 +2491,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2488,7 +2500,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2497,7 +2509,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2506,7 +2518,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2515,7 +2527,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2524,7 +2536,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2533,7 +2545,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2542,7 +2554,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2551,7 +2563,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="3"/>
@@ -2560,7 +2572,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2569,7 +2581,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2578,7 +2590,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
@@ -2587,7 +2599,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2596,7 +2608,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2605,7 +2617,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2614,7 +2626,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2623,7 +2635,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2632,7 +2644,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2641,7 +2653,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2650,7 +2662,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2659,7 +2671,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2668,7 +2680,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2677,7 +2689,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2686,7 +2698,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2695,7 +2707,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2704,7 +2716,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2713,7 +2725,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2722,7 +2734,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2731,7 +2743,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2740,7 +2752,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2749,7 +2761,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2758,7 +2770,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2767,7 +2779,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2776,7 +2788,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2785,7 +2797,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2794,7 +2806,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2803,7 +2815,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2812,7 +2824,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2821,7 +2833,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2830,7 +2842,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2839,7 +2851,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2848,7 +2860,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2857,7 +2869,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2866,7 +2878,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -2875,7 +2887,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -2884,7 +2896,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -2893,7 +2905,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -2902,7 +2914,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -2911,7 +2923,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2920,7 +2932,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2929,7 +2941,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2938,7 +2950,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2947,25 +2959,25 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>GESAMT</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+  </si>
+  <si>
+    <t>Überarbeitung des Projekttagebuchs, Trello Board für Code Reviews hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,18 +1015,28 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13">
+        <v>43226</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.5</v>
+      </c>
       <c r="G21" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
@@ -1366,7 +1379,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>26.75</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F322BAE-F9FD-4BFB-A250-95E188C473DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>GESAMT</t>
   </si>
@@ -89,9 +90,6 @@
     <t>Besprechung LVA Leiter Release I</t>
   </si>
   <si>
-    <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
-  </si>
-  <si>
     <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
   </si>
   <si>
@@ -101,10 +99,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -204,12 +202,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -223,7 +221,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -256,6 +254,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -321,21 +325,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" name="von" dataDxfId="3"/>
-    <tableColumn id="5" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -605,42 +609,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1"/>
-    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -663,7 +667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -688,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -713,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -739,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -764,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -789,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -814,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -839,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -864,7 +868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -889,7 +893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -914,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -939,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -964,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -975,76 +979,71 @@
         <v>43223</v>
       </c>
       <c r="E19" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G19" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.25</v>
+      </c>
+      <c r="H19" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="26">
+        <v>43226</v>
+      </c>
+      <c r="E20" s="27">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F19" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G19" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+      <c r="F20" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="13">
-        <v>43223</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G20" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>2.25</v>
-      </c>
-      <c r="H20" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="13">
-        <v>43226</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0.5</v>
+      <c r="D21" s="26">
+        <v>43237</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0.625</v>
       </c>
       <c r="G21" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -1054,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1069,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1084,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -1114,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -1129,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1144,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1159,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1174,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1204,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1219,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1234,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1249,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1264,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1279,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1294,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1309,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1324,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1339,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1354,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -1369,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
@@ -1379,16 +1378,16 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
@@ -1397,7 +1396,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1406,7 +1405,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1415,7 +1414,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1424,7 +1423,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1433,7 +1432,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1442,7 +1441,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1451,7 +1450,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1460,7 +1459,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1469,7 +1468,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1478,7 +1477,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
@@ -1487,7 +1486,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1496,7 +1495,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1505,7 +1504,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1514,7 +1513,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1523,7 +1522,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1532,7 +1531,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1541,7 +1540,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1550,7 +1549,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1559,7 +1558,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1568,7 +1567,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1577,7 +1576,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1586,7 +1585,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1595,7 +1594,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1604,7 +1603,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1613,7 +1612,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1622,7 +1621,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1631,7 +1630,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1640,7 +1639,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1649,7 +1648,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1658,7 +1657,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1667,7 +1666,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1676,7 +1675,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1685,7 +1684,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1694,7 +1693,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1703,7 +1702,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1712,7 +1711,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1721,7 +1720,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1730,7 +1729,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1739,7 +1738,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1748,7 +1747,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1757,7 +1756,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1766,7 +1765,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3"/>
@@ -1775,7 +1774,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1784,7 +1783,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1793,7 +1792,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
@@ -1802,7 +1801,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1811,7 +1810,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1820,7 +1819,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1829,7 +1828,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1838,7 +1837,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1847,7 +1846,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1856,7 +1855,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1865,7 +1864,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1874,7 +1873,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1883,7 +1882,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1892,7 +1891,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1901,7 +1900,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1910,7 +1909,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1919,7 +1918,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1928,7 +1927,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1937,7 +1936,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1946,7 +1945,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1955,7 +1954,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1964,7 +1963,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1973,7 +1972,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1982,7 +1981,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1991,7 +1990,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2000,7 +1999,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2009,7 +2008,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2018,7 +2017,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2027,7 +2026,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2036,7 +2035,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2045,7 +2044,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2054,7 +2053,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2063,7 +2062,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2072,7 +2071,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2081,7 +2080,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2090,7 +2089,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2099,7 +2098,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2108,7 +2107,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2117,7 +2116,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2126,7 +2125,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2135,7 +2134,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2144,7 +2143,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2153,7 +2152,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2162,7 +2161,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2171,7 +2170,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3"/>
@@ -2180,7 +2179,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2189,7 +2188,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2198,7 +2197,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -2207,7 +2206,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2216,7 +2215,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2225,7 +2224,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2234,7 +2233,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2243,7 +2242,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2252,7 +2251,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2261,7 +2260,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2270,7 +2269,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2279,7 +2278,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2288,7 +2287,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2297,7 +2296,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2306,7 +2305,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2315,7 +2314,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2324,7 +2323,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2333,7 +2332,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2342,7 +2341,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2351,7 +2350,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2360,7 +2359,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2369,7 +2368,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2378,7 +2377,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2387,7 +2386,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2396,7 +2395,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2405,7 +2404,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2414,7 +2413,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2423,7 +2422,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2432,7 +2431,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2441,7 +2440,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2450,7 +2449,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2459,7 +2458,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2468,7 +2467,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2477,7 +2476,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2486,7 +2485,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2495,7 +2494,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2504,7 +2503,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2513,7 +2512,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2522,7 +2521,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2531,7 +2530,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2540,7 +2539,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2549,7 +2548,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2558,7 +2557,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2567,7 +2566,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2576,7 +2575,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="3"/>
@@ -2585,7 +2584,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2594,7 +2593,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2603,7 +2602,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
@@ -2612,7 +2611,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2621,7 +2620,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2630,7 +2629,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2639,7 +2638,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2648,7 +2647,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2657,7 +2656,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2666,7 +2665,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2675,7 +2674,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2684,7 +2683,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2693,7 +2692,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2702,7 +2701,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2711,7 +2710,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2720,7 +2719,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2729,7 +2728,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2738,7 +2737,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2747,7 +2746,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2756,7 +2755,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2765,7 +2764,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2774,7 +2773,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2783,7 +2782,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2792,7 +2791,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2801,7 +2800,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2810,7 +2809,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2819,7 +2818,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2828,7 +2827,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2837,7 +2836,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2846,7 +2845,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2855,7 +2854,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2864,7 +2863,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2873,7 +2872,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2882,7 +2881,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2891,7 +2890,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -2900,7 +2899,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -2909,7 +2908,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -2918,7 +2917,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -2927,7 +2926,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -2936,7 +2935,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2945,7 +2944,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2954,7 +2953,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2963,7 +2962,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2972,25 +2971,25 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F322BAE-F9FD-4BFB-A250-95E188C473DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D264833-B55A-4261-91AE-41593A75BFD0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7440" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>GESAMT</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Überarbeitung des Projekttagebuchs, Trello Board für Code Reviews hinzugefügt</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting Fehlerbehebung</t>
   </si>
 </sst>
 </file>
@@ -612,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1047,28 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="13">
+        <v>43243</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G22" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H22" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1378,7 +1396,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>29.75</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,7 +3011,6 @@
       <c r="A229" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D264833-B55A-4261-91AE-41593A75BFD0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -98,14 +97,32 @@
   <si>
     <t>Gruppen Meeting Fehlerbehebung</t>
   </si>
+  <si>
+    <t>Ausarbeitung Funktionen</t>
+  </si>
+  <si>
+    <t>Überarbeitung Activityfunktionen (Ist Zeit Funktionalitätskorrektur)</t>
+  </si>
+  <si>
+    <t>Ausabreitung Funktionen</t>
+  </si>
+  <si>
+    <t>Codereview und Fehlerkorrekturen</t>
+  </si>
+  <si>
+    <t>Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Überarbeitung Trello &amp; Dokumente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -205,12 +222,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -224,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -260,9 +277,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -328,21 +346,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H44"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" name="von" dataDxfId="3"/>
+    <tableColumn id="5" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -612,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,63 +1090,103 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="28">
+        <v>43243</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="28">
+        <v>43243</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0.9375</v>
+      </c>
       <c r="G24" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H24" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="26">
+        <v>43244</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G25" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H25" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43244</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G26" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H26" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1454,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>34.25</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Überarbeitung Trello &amp; Dokumente</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Testen des SourceCodes, Fehlerüberprüfung</t>
+  </si>
+  <si>
+    <t>Trello und Projekttagebuch</t>
   </si>
 </sst>
 </file>
@@ -634,7 +643,7 @@
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,33 +1199,53 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43256</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43257</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G28" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1483,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1">
         <f>SUM(G7:G43)</f>
-        <v>47.75</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,6 +3098,7 @@
       <c r="A229" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="12100" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>GESAMT</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Trello und Projekttagebuch</t>
+  </si>
+  <si>
+    <t>Gruppenmeeting: Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
@@ -290,6 +293,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -355,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H51"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
@@ -642,39 +646,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1"/>
+    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -697,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -722,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -747,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -773,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -798,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -823,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -848,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -873,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -898,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -923,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -948,57 +952,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D17" s="13">
-        <v>43216</v>
+        <v>43209</v>
       </c>
       <c r="E17" s="12">
-        <v>0.5</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F17" s="12">
-        <v>0.625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G17" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18" s="13">
-        <v>43209</v>
+        <v>43216</v>
       </c>
       <c r="E18" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="12">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="G18" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1223,62 +1227,82 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43256</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>43257</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>0.75</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="13">
+        <v>43258</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G30" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -1293,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1308,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1323,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1338,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1353,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1368,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1383,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1398,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1413,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1428,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1443,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1458,140 +1482,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="1">
-        <f>SUM(G7:G43)</f>
-        <v>52.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="B51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="1">
+        <f>SUM(G7:G50)</f>
+        <v>56.75</v>
+      </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="3"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="3"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1600,7 +1677,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1609,7 +1686,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1618,7 +1695,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1627,7 +1704,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1636,7 +1713,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1645,16 +1722,16 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1663,7 +1740,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1672,7 +1749,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1681,7 +1758,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1690,7 +1767,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1699,7 +1776,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1708,7 +1785,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1717,7 +1794,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1726,7 +1803,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1735,7 +1812,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1744,7 +1821,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1753,7 +1830,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1762,7 +1839,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1771,7 +1848,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1780,7 +1857,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1789,7 +1866,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1798,7 +1875,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1807,7 +1884,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1816,7 +1893,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1825,7 +1902,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1834,7 +1911,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1843,7 +1920,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1852,7 +1929,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1861,7 +1938,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1870,61 +1947,61 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="4"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="4"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="4"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="4"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1933,61 +2010,61 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="3"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="3"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="3"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="3"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="5"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1996,7 +2073,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2005,7 +2082,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2014,7 +2091,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2023,7 +2100,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2032,7 +2109,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2041,7 +2118,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2050,7 +2127,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2059,7 +2136,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2068,7 +2145,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2077,7 +2154,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2086,7 +2163,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2095,7 +2172,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2104,7 +2181,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2113,7 +2190,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2122,7 +2199,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2131,7 +2208,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2140,7 +2217,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2149,7 +2226,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2158,7 +2235,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2167,7 +2244,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2176,7 +2253,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2185,7 +2262,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2194,7 +2271,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2203,7 +2280,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2212,7 +2289,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2221,7 +2298,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2230,7 +2307,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2239,7 +2316,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2248,7 +2325,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2257,7 +2334,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2266,7 +2343,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2275,61 +2352,61 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="4"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="4"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="4"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="4"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="5"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2338,61 +2415,61 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="3"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="3"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="3"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="3"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="5"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2401,7 +2478,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2410,7 +2487,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2419,7 +2496,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2428,7 +2505,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2437,7 +2514,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2446,7 +2523,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2455,7 +2532,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2464,7 +2541,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2473,7 +2550,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2482,7 +2559,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2491,7 +2568,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2500,7 +2577,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2509,7 +2586,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2518,7 +2595,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2527,7 +2604,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2536,7 +2613,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2545,7 +2622,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2554,7 +2631,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2563,7 +2640,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2572,7 +2649,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2581,7 +2658,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2590,7 +2667,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2599,7 +2676,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2608,7 +2685,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2617,7 +2694,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2626,7 +2703,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2635,7 +2712,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2644,7 +2721,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2653,7 +2730,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2662,7 +2739,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2671,7 +2748,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2680,61 +2757,61 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
-      <c r="B179" s="8"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="4"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="4"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="4"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
+      <c r="D182" s="4"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="4"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="5"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="4"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2743,61 +2820,61 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="3"/>
       <c r="D186" s="4"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="3"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="3"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="3"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="3"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="4"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="5"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2806,7 +2883,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2815,7 +2892,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2824,7 +2901,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2833,7 +2910,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2842,7 +2919,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2851,7 +2928,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2860,7 +2937,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2869,7 +2946,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2878,7 +2955,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2887,7 +2964,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2896,7 +2973,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2905,7 +2982,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2914,7 +2991,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -2923,7 +3000,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -2932,7 +3009,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -2941,7 +3018,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -2950,7 +3027,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -2959,7 +3036,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -2968,7 +3045,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -2977,7 +3054,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2986,7 +3063,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2995,7 +3072,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3004,7 +3081,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3013,7 +3090,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3022,7 +3099,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3031,7 +3108,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3040,7 +3117,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3049,52 +3126,64 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="4"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="4"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="4"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="13035" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>GESAMT</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Gruppenmeeting: Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Qualität des Codes</t>
+  </si>
+  <si>
+    <t>SQL Verbindung und Variablenanpassung</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
@@ -294,6 +300,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -646,39 +653,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1"/>
-    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -701,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -726,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -751,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -777,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -802,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -827,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -852,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -877,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -902,7 +909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -927,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -952,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -977,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>2</v>
       </c>
@@ -1302,22 +1309,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="13">
+        <v>43259</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="G31" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -1332,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1347,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1362,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1377,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1392,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1407,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1422,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1437,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1452,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1467,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1482,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="26"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
@@ -1495,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D44" s="26"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -1508,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -1521,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="D46" s="26"/>
       <c r="E46" s="27"/>
@@ -1535,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1551,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1567,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1583,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1599,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="11" t="s">
         <v>0</v>
@@ -1610,11 +1627,11 @@
       <c r="F51" s="10"/>
       <c r="G51" s="1">
         <f>SUM(G7:G50)</f>
-        <v>56.75</v>
+        <v>63.75</v>
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1623,7 +1640,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1632,7 +1649,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
@@ -1641,7 +1658,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1650,7 +1667,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1659,7 +1676,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1668,7 +1685,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1677,7 +1694,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1686,7 +1703,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1695,7 +1712,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1704,7 +1721,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1713,7 +1730,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1722,7 +1739,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="9"/>
       <c r="C64" s="3"/>
@@ -1731,7 +1748,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1740,7 +1757,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1749,7 +1766,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1758,7 +1775,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1767,7 +1784,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1776,7 +1793,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1785,7 +1802,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1794,7 +1811,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1803,7 +1820,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1812,7 +1829,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1821,7 +1838,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1830,7 +1847,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1839,7 +1856,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1848,7 +1865,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1857,7 +1874,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1866,7 +1883,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1875,7 +1892,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1884,7 +1901,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1893,7 +1910,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1902,7 +1919,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1911,7 +1928,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1920,7 +1937,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1929,7 +1946,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1938,7 +1955,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1947,7 +1964,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1956,7 +1973,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1965,7 +1982,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1974,7 +1991,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1983,7 +2000,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1992,7 +2009,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2001,7 +2018,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2010,7 +2027,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="3"/>
@@ -2019,7 +2036,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2028,7 +2045,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2037,7 +2054,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="7"/>
       <c r="C99" s="3"/>
@@ -2046,7 +2063,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2055,7 +2072,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2064,7 +2081,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2073,7 +2090,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2082,7 +2099,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2091,7 +2108,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2100,7 +2117,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2109,7 +2126,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2118,7 +2135,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2127,7 +2144,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2136,7 +2153,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2145,7 +2162,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2154,7 +2171,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2163,7 +2180,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2172,7 +2189,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2181,7 +2198,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2190,7 +2207,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2199,7 +2216,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2208,7 +2225,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2217,7 +2234,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2226,7 +2243,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2235,7 +2252,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2244,7 +2261,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2253,7 +2270,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2262,7 +2279,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2271,7 +2288,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2280,7 +2297,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2289,7 +2306,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2298,7 +2315,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2307,7 +2324,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2316,7 +2333,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2325,7 +2342,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2334,7 +2351,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2343,7 +2360,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2352,7 +2369,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2361,7 +2378,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2370,7 +2387,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2379,7 +2396,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2388,7 +2405,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2397,7 +2414,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2406,7 +2423,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2415,7 +2432,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3"/>
@@ -2424,7 +2441,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2433,7 +2450,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2442,7 +2459,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
@@ -2451,7 +2468,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2460,7 +2477,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -2469,7 +2486,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2478,7 +2495,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2487,7 +2504,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2496,7 +2513,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2505,7 +2522,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2514,7 +2531,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2523,7 +2540,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2532,7 +2549,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2541,7 +2558,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2550,7 +2567,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2559,7 +2576,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2568,7 +2585,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2577,7 +2594,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2586,7 +2603,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2595,7 +2612,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2604,7 +2621,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2613,7 +2630,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2622,7 +2639,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2631,7 +2648,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2640,7 +2657,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2649,7 +2666,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2658,7 +2675,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2667,7 +2684,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2676,7 +2693,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2685,7 +2702,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2694,7 +2711,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2703,7 +2720,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2712,7 +2729,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2721,7 +2738,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2730,7 +2747,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2739,7 +2756,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2748,7 +2765,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2757,7 +2774,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2766,7 +2783,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2775,7 +2792,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2784,7 +2801,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2793,7 +2810,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2802,7 +2819,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2811,7 +2828,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2820,7 +2837,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="8"/>
       <c r="C186" s="3"/>
@@ -2829,7 +2846,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2838,7 +2855,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2847,7 +2864,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
@@ -2856,7 +2873,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2865,7 +2882,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -2874,7 +2891,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2883,7 +2900,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2892,7 +2909,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2901,7 +2918,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2910,7 +2927,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2919,7 +2936,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2928,7 +2945,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2937,7 +2954,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2946,7 +2963,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2955,7 +2972,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2964,7 +2981,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2973,7 +2990,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2982,7 +2999,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -2991,7 +3008,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3000,7 +3017,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3009,7 +3026,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3018,7 +3035,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3027,7 +3044,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3036,7 +3053,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3045,7 +3062,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3054,7 +3071,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3063,7 +3080,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3072,7 +3089,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3081,7 +3098,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3090,7 +3107,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3099,7 +3116,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3108,7 +3125,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3117,7 +3134,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3126,7 +3143,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3135,7 +3152,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3144,7 +3161,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3153,37 +3170,37 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13581AE0-8C98-45FC-B287-F430F8E63407}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="13032" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>GESAMT</t>
   </si>
@@ -137,10 +138,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -240,12 +241,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -259,7 +260,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -295,7 +296,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
@@ -303,8 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -366,21 +367,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" name="von" dataDxfId="3"/>
-    <tableColumn id="5" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -650,42 +651,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -708,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -733,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -758,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -784,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -809,7 +810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -834,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -859,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -884,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -909,7 +910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -934,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -959,7 +960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -984,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
@@ -1334,22 +1335,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="13">
+        <v>43283</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.625</v>
+      </c>
       <c r="G32" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -1364,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -1379,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1394,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="13"/>
@@ -1409,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -1424,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -1439,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -1454,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -1469,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -1484,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -1499,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" s="26"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
@@ -1512,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D44" s="26"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -1525,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -1538,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="D46" s="26"/>
       <c r="E46" s="27"/>
@@ -1552,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1568,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1584,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1600,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1616,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="11" t="s">
         <v>0</v>
@@ -1627,11 +1638,11 @@
       <c r="F51" s="10"/>
       <c r="G51" s="1">
         <f>SUM(G7:G50)</f>
-        <v>63.75</v>
+        <v>65.75</v>
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1640,7 +1651,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1649,7 +1660,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
@@ -1658,7 +1669,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1667,7 +1678,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1676,7 +1687,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1685,7 +1696,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1694,7 +1705,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1703,7 +1714,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1712,7 +1723,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1721,7 +1732,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1730,7 +1741,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1739,7 +1750,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="9"/>
       <c r="C64" s="3"/>
@@ -1748,7 +1759,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1757,7 +1768,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1766,7 +1777,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1775,7 +1786,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1784,7 +1795,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1793,7 +1804,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1802,7 +1813,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1811,7 +1822,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1820,7 +1831,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1829,7 +1840,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1838,7 +1849,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1847,7 +1858,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1856,7 +1867,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1865,7 +1876,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1874,7 +1885,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1883,7 +1894,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1892,7 +1903,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1901,7 +1912,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1910,7 +1921,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1919,7 +1930,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1928,7 +1939,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1937,7 +1948,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1946,7 +1957,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1955,7 +1966,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1964,7 +1975,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1973,7 +1984,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1982,7 +1993,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1991,7 +2002,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2000,7 +2011,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2009,7 +2020,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2018,7 +2029,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2027,7 +2038,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="3"/>
@@ -2036,7 +2047,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2045,7 +2056,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2054,7 +2065,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="7"/>
       <c r="C99" s="3"/>
@@ -2063,7 +2074,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2072,7 +2083,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2081,7 +2092,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2090,7 +2101,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2099,7 +2110,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2108,7 +2119,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2117,7 +2128,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2126,7 +2137,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2135,7 +2146,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2144,7 +2155,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2153,7 +2164,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2162,7 +2173,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2171,7 +2182,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2180,7 +2191,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2189,7 +2200,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2198,7 +2209,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2207,7 +2218,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2216,7 +2227,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2225,7 +2236,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2234,7 +2245,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2243,7 +2254,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2252,7 +2263,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2261,7 +2272,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2270,7 +2281,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2279,7 +2290,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2288,7 +2299,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2297,7 +2308,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2306,7 +2317,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2315,7 +2326,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2324,7 +2335,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2333,7 +2344,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2342,7 +2353,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2351,7 +2362,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2360,7 +2371,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2369,7 +2380,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2378,7 +2389,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2387,7 +2398,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2396,7 +2407,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2405,7 +2416,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2414,7 +2425,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2423,7 +2434,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2432,7 +2443,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="8"/>
       <c r="C141" s="3"/>
@@ -2441,7 +2452,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2450,7 +2461,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2459,7 +2470,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
@@ -2468,7 +2479,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2477,7 +2488,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -2486,7 +2497,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2495,7 +2506,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2504,7 +2515,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2513,7 +2524,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2522,7 +2533,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2531,7 +2542,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2540,7 +2551,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2549,7 +2560,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2558,7 +2569,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2567,7 +2578,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2576,7 +2587,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2585,7 +2596,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2594,7 +2605,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2603,7 +2614,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2612,7 +2623,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2621,7 +2632,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2630,7 +2641,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2639,7 +2650,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2648,7 +2659,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2657,7 +2668,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2666,7 +2677,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2675,7 +2686,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2684,7 +2695,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2693,7 +2704,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2702,7 +2713,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2711,7 +2722,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2720,7 +2731,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2729,7 +2740,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2738,7 +2749,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2747,7 +2758,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2756,7 +2767,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2765,7 +2776,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2774,7 +2785,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2783,7 +2794,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2792,7 +2803,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2801,7 +2812,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2810,7 +2821,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2819,7 +2830,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2828,7 +2839,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2837,7 +2848,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="8"/>
       <c r="C186" s="3"/>
@@ -2846,7 +2857,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2855,7 +2866,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2864,7 +2875,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
@@ -2873,7 +2884,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2882,7 +2893,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -2891,7 +2902,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2900,7 +2911,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2909,7 +2920,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2918,7 +2929,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2927,7 +2938,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2936,7 +2947,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2945,7 +2956,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2954,7 +2965,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2963,7 +2974,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2972,7 +2983,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2981,7 +2992,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -2990,7 +3001,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -2999,7 +3010,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3008,7 +3019,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3017,7 +3028,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3026,7 +3037,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3035,7 +3046,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3044,7 +3055,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3053,7 +3064,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3062,7 +3073,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3071,7 +3082,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3080,7 +3091,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3089,7 +3100,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3098,7 +3109,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3107,7 +3118,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3116,7 +3127,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3125,7 +3136,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3134,7 +3145,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3143,7 +3154,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3152,7 +3163,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3161,7 +3172,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3170,37 +3181,37 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Huber.xlsx
+++ b/Dokumente/Zeiterfassung/Huber.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13581AE0-8C98-45FC-B287-F430F8E63407}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13032" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Huber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>GESAMT</t>
   </si>
@@ -133,15 +132,117 @@
   </si>
   <si>
     <t>SQL Verbindung und Variablenanpassung</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Onlinestudium der Möglichkeiten der Graphischen Verbesserung des RC2</t>
+  </si>
+  <si>
+    <t>Designarbeiten</t>
+  </si>
+  <si>
+    <t>Beginn der Arbeit mit dem JavaFX SceneBuilder, Entwurf der ersten Scenes (Projects)</t>
+  </si>
+  <si>
+    <t>Verbesserung des Entwurfs, erstellen weiterer Scenes</t>
+  </si>
+  <si>
+    <t>Entwurf der DashboardScene, der Task Management Scene, der PopupScenes</t>
+  </si>
+  <si>
+    <t>Entwurf der userManagementScene, weitere Arbeit bei dem PopupScenes</t>
+  </si>
+  <si>
+    <t>Entwurf der restlichen Scenes, Layoutanpassungen, Hinzufügen neuer Elemente.</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Designtests</t>
+  </si>
+  <si>
+    <t>Tests der erstellen Layouts, verknüpfung erstellt bei sämtlichen Buttons, Designentwürfe getestet</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t>Verknüpfung sämtlicher "Scenes" mit den Stages, erste Versuche der Migration</t>
+  </si>
+  <si>
+    <t>Überarbeitung der Datenbankverbindung, Onlinerecherche über Hibernate</t>
+  </si>
+  <si>
+    <t>Testen einer Basishibernateklasse, Erstellen der ersten Annotations, Überarbeitung der Datenbanktabellen</t>
+  </si>
+  <si>
+    <t>Hibernatemigration vervollständigt, Tests der CRUD Operationen, Annotionen finalisiert</t>
+  </si>
+  <si>
+    <t>Designanpassung</t>
+  </si>
+  <si>
+    <t>Erstellen des LoginFensters, Erstellen der Notification und ChoiceBox, Tests</t>
+  </si>
+  <si>
+    <t>Entwicklung der Loginfunktionalität, Einführung der BusinessRoleklasse, erste Userpermissions umgesetzt</t>
+  </si>
+  <si>
+    <t>Elemente des Dashboards fertiggestellt, Tabellenmethoden geschrieben</t>
+  </si>
+  <si>
+    <t>Elemente des Usermanagement, AddUser und Edituser mit der vorgesegehen Funktionalität versehen</t>
+  </si>
+  <si>
+    <t>Erstellung der LoadDependences Klasse, Überarbeitung des "LoadScene" Verhaltens</t>
+  </si>
+  <si>
+    <t>Umbau sämtlicher Klassen von Statischen in Dynamische</t>
+  </si>
+  <si>
+    <t>Layoutfehlerbehebungen, wurde bei der erstmaligen Ausführung auf einem Laptop bemerkt</t>
+  </si>
+  <si>
+    <t>Fertigstellung der ProjectsScene, inklusive der Edit/AddProjectScenes</t>
+  </si>
+  <si>
+    <t>Erstellung des Klasse ProjectDashboardControl, inklusive der Dynamischen Tabellen</t>
+  </si>
+  <si>
+    <t>Erstellung der Klasse TaskDashboardControl</t>
+  </si>
+  <si>
+    <t>Zwischentests der bereits realisierten Funktionalität</t>
+  </si>
+  <si>
+    <t>Erstellung der ersten Reports, BarChart Projectoverview, inklusive Fehlerbehebungen</t>
+  </si>
+  <si>
+    <t>Weitere Arbeiten an den Reports, diverse Feinanpassungen, NPE Fehlerbehebungen,..</t>
+  </si>
+  <si>
+    <t>Erstellung von DemoDaten, um die Funktionalität zu testen</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Erstellung eines weiteren Charts, anpassung der Funktionalität des Activitycharts</t>
+  </si>
+  <si>
+    <t>Finale Tests, Sicherung der Datenbank, kleinere Feinabstimmungen, CodeOverview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -241,12 +342,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -260,7 +361,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -296,7 +397,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
@@ -304,8 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -367,21 +468,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:H51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle36" displayName="Tabelle36" ref="B6:H67" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B6:H67"/>
   <sortState ref="B7:H44">
     <sortCondition ref="D6:D44"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art" dataDxfId="6"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="8" name="Datum" dataDxfId="4"/>
+    <tableColumn id="4" name="von" dataDxfId="3"/>
+    <tableColumn id="5" name="bis" dataDxfId="2"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -651,42 +752,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
-    <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -709,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
@@ -734,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -759,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -785,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
@@ -810,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -835,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -860,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
@@ -885,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
@@ -910,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -935,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -960,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -985,7 +1086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +1336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -1360,478 +1461,868 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="13">
+        <v>43256</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G33" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="13">
+        <v>43258</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G34" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="13">
+        <v>43260</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G35" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13">
+        <v>43261</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G36" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13">
+        <v>43262</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G37" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H37" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="13">
+        <v>43264</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G38" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>6</v>
+      </c>
+      <c r="H38" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="13">
+        <v>43264</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="G39" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.3333333333333321</v>
+      </c>
+      <c r="H39" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13">
+        <v>43265</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G40" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4.25</v>
+      </c>
+      <c r="H40" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="13">
+        <v>43266</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G41" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.25</v>
+      </c>
+      <c r="H41" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="13">
+        <v>43267</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G42" s="1">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="26">
+        <v>43268</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G43" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H43" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="26">
+        <v>43270</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="G44" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="26">
+        <v>43270</v>
+      </c>
+      <c r="E45" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="G45" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>5.75</v>
+      </c>
+      <c r="H45" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="26">
+        <v>43271</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F46" s="27">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="G46" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>5.25</v>
+      </c>
+      <c r="H46" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="26">
+        <v>43272</v>
+      </c>
+      <c r="E47" s="27">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G47" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.25</v>
+      </c>
+      <c r="H47" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="26">
+        <v>43272</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F48" s="27">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="G48" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H48" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="26">
+        <v>43274</v>
+      </c>
+      <c r="E49" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="G49" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>8</v>
+      </c>
+      <c r="H49" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="26">
+        <v>43276</v>
+      </c>
+      <c r="E50" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G50" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>7</v>
+      </c>
+      <c r="H50" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="26">
+        <v>43276</v>
+      </c>
+      <c r="E51" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G51" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4</v>
+      </c>
+      <c r="H51" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="26">
+        <v>43279</v>
+      </c>
+      <c r="E52" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="G52" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>6.4166666666666643</v>
+      </c>
+      <c r="H52" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="26">
+        <v>43280</v>
+      </c>
+      <c r="E53" s="27">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F53" s="27">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G53" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H53" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="26">
+        <v>43281</v>
+      </c>
+      <c r="E54" s="27">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F54" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1.75</v>
+      </c>
+      <c r="H54" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="26">
+        <v>43282</v>
+      </c>
+      <c r="E55" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F55" s="27">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G55" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H55" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="26">
+        <v>43283</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0.65625</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0.96875</v>
+      </c>
+      <c r="G56" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H56" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="26">
+        <v>43285</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F57" s="27">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G57" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>6.25</v>
+      </c>
+      <c r="H57" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="26">
+        <v>43285</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F58" s="27">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="G58" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>5.75</v>
+      </c>
+      <c r="H58" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="26">
+        <v>43286</v>
+      </c>
+      <c r="E59" s="27">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F59" s="27">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G59" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>4</v>
+      </c>
+      <c r="H59" s="29">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="29">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H60" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="1">
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H61" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="1">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H62" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="1">
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H63" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="1">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H64" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="1">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H65" s="29">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="1">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="1">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H66" s="1">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="29">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="1">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="1">
-        <f>SUM(G7:G50)</f>
-        <v>65.75</v>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="1">
+        <f>SUM(G7:G66)</f>
+        <v>199.24999999999997</v>
+      </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="3"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="3"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="3"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1840,7 +2331,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1849,7 +2340,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1858,7 +2349,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1867,7 +2358,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1876,7 +2367,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1885,7 +2376,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1894,16 +2385,16 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1912,7 +2403,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1921,7 +2412,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1930,7 +2421,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1939,7 +2430,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1948,7 +2439,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1957,7 +2448,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1966,7 +2457,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1975,7 +2466,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1984,7 +2475,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1993,7 +2484,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2002,7 +2493,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2011,7 +2502,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2020,7 +2511,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2029,7 +2520,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2038,61 +2529,61 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="4"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="4"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="4"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="4"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="5"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2101,7 +2592,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2110,7 +2601,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2119,7 +2610,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2128,7 +2619,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2137,7 +2628,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2146,7 +2637,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2155,7 +2646,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2164,7 +2655,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2173,7 +2664,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2182,61 +2673,61 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="3"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="3"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="3"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="3"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2245,7 +2736,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2254,7 +2745,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2263,7 +2754,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2272,7 +2763,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2281,7 +2772,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2290,7 +2781,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2299,7 +2790,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2308,7 +2799,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2317,7 +2808,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2326,7 +2817,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2335,7 +2826,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2344,7 +2835,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2353,7 +2844,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2362,7 +2853,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2371,7 +2862,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2380,7 +2871,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2389,7 +2880,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2398,7 +2889,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2407,7 +2898,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2416,7 +2907,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2425,7 +2916,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2434,7 +2925,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2443,61 +2934,61 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="8"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="4"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="4"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="4"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="4"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="5"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2506,7 +2997,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2515,7 +3006,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2524,7 +3015,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2533,7 +3024,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2542,7 +3033,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2551,7 +3042,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2560,7 +3051,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2569,7 +3060,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2578,7 +3069,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2587,61 +3078,61 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="3"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="3"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="3"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="3"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="5"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2650,7 +3141,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2659,7 +3150,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2668,7 +3159,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2677,7 +3168,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2686,7 +3177,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2695,7 +3186,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2704,7 +3195,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2713,7 +3204,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2722,7 +3213,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2731,7 +3222,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2740,7 +3231,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2749,7 +3240,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2758,7 +3249,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2767,7 +3258,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2776,7 +3267,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2785,7 +3276,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2794,7 +3285,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2803,7 +3294,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2812,7 +3303,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2821,7 +3312,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2830,7 +3321,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2839,7 +3330,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2848,61 +3339,61 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="8"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="4"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="4"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="4"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="7"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="4"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
+      <c r="D190" s="4"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="5"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2911,7 +3402,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2920,7 +3411,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2929,7 +3420,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2938,7 +3429,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2947,7 +3438,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2956,7 +3447,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2965,7 +3456,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -2974,7 +3465,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2983,7 +3474,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2992,61 +3483,61 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="8"/>
       <c r="C202" s="3"/>
       <c r="D202" s="4"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="3"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="3"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="7"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="3"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="3"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="5"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3055,7 +3546,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3064,7 +3555,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3073,7 +3564,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3082,7 +3573,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3091,7 +3582,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3100,7 +3591,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3109,7 +3600,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3118,7 +3609,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3127,7 +3618,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3136,7 +3627,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3145,7 +3636,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3154,7 +3645,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3163,7 +3654,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3172,7 +3663,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3181,41 +3672,184 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="4"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="4"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="4"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="4"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="4"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="4"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="4"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="4"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="4"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
